--- a/data-raw/desc_IPU.xlsx
+++ b/data-raw/desc_IPU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2.Programação e Normas\2023\PPAG 2023 e LOA 2023\Tabelas de Apoio - geração dos volumes 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1529042\Desktop\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_B288C9EF925CD735DDB2D4C730626BB5276C6FF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Idenficadores de procedência e " sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
     <t>RECURSOS DECORRENTES DA DESVINCULAÇÃO DE RECEITAS CONFORME A EC 93/2016</t>
   </si>
   <si>
-    <t xml:space="preserve">RECURSOS RECEBIDOS PARA LIVRE UTILIZAÇÃO </t>
+    <t>RECURSOS RECEBIDOS PARA EXECUÇÃO DIRETA DAS UNIDADES ORÇAMENTÁRIAS</t>
   </si>
   <si>
     <t>RECURSOS RECEBIDOS DE OUTRA UNIDADE ORÇAMENTÁRIA DO ORÇAMENTO FISCAL PARA LIVRE UTILIZAÇÃO</t>
@@ -69,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,20 +381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -409,7 +410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -417,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -425,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -433,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -441,7 +442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -457,7 +458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -465,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -473,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -487,8 +488,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1f47f591d2cee6122bef25da059db4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="856a76bd91320367711680b85ef754cf" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -567,7 +568,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="917d32f3-4fa4-4f5b-a8d0-62dbd3d265b9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -598,7 +599,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -617,7 +618,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -645,8 +646,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -736,6 +737,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -744,25 +764,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F00644-6B12-4817-968D-AA9ECF6AFE04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A6B924-6341-444B-BD8F-CCC550CD9DE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE51641F-C218-47D8-9CEE-69210AAB276C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94BBA99A-FA68-4507-AA24-F7EDE2D15285}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
 </file>
--- a/data-raw/desc_IPU.xlsx
+++ b/data-raw/desc_IPU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,10 +19,21 @@
     <definedName name="_Toc421621627" localSheetId="0">'Idenficadores de procedência e '!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -737,6 +748,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
@@ -755,23 +775,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A6B924-6341-444B-BD8F-CCC550CD9DE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
 </file>
--- a/data-raw/desc_IPU.xlsx
+++ b/data-raw/desc_IPU.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,21 +19,10 @@
     <definedName name="_Toc421621627" localSheetId="0">'Idenficadores de procedência e '!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -499,8 +488,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -525,6 +514,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -604,6 +594,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -748,15 +743,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
@@ -770,19 +756,27 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A6B924-6341-444B-BD8F-CCC550CD9DE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CCCF36-5B33-4B61-A5C7-201737F69C59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
 </file>
--- a/data-raw/desc_IPU.xlsx
+++ b/data-raw/desc_IPU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1529042\Desktop\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B288C9EF925CD735DDB2D4C730626BB5276C6FF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B288C9EF925CD735DDB2D4C730626BB5276C6FF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B217E22E-31ED-4597-80A4-3EAA4C17F5A9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,22 @@
     <definedName name="_Toc421621627" localSheetId="0">'Idenficadores de procedência e '!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -58,7 +69,7 @@
     <t>RECURSOS RECEBIDOS PARA CONTRAPARTIDA DE OPERAÇÃO DE CRÉDITO</t>
   </si>
   <si>
-    <t>RECURSOS RECEBIDOS PARA AUXÍLIOS DOENÇA, FUNERAL, ALIMENTAÇÃO, TRANSPORTE E FARDAMENTO</t>
+    <t>RECURSOS RECEBIDOS PARA AUXÍLIOS</t>
   </si>
   <si>
     <t>RECURSOS RECEBIDOS PARA EMENDAS PARLAMENTARES</t>
@@ -385,7 +396,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,6 +754,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
@@ -760,23 +780,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CCCF36-5B33-4B61-A5C7-201737F69C59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
 </file>
--- a/data-raw/desc_IPU.xlsx
+++ b/data-raw/desc_IPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1529042\Desktop\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cecad365.sharepoint.com/sites/Splor/Documentos Compartilhados/General/@dcppn/DCPPN 2026/PPAG e LOA 2026/material de apoio/material de apoio - gerar volumes/2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B288C9EF925CD735DDB2D4C730626BB5276C6FF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B217E22E-31ED-4597-80A4-3EAA4C17F5A9}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AAB83BBD0033966C55F64A780D8DB1C4F2ABA904" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942DC0C2-E00C-4636-867F-E5FECD9D95BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Idenficadores de procedência e " sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>ESPECIFICACAO</t>
   </si>
   <si>
-    <t>RECURSOS DECORRENTES DA DESVINCULAÇÃO DE RECEITAS CONFORME A EC 93/2016</t>
-  </si>
-  <si>
     <t>RECURSOS RECEBIDOS PARA EXECUÇÃO DIRETA DAS UNIDADES ORÇAMENTÁRIAS</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
   </si>
   <si>
     <t>RECURSOS RECEBIDOS PARA PRECATÓRIOS E SENTENÇAS JUDICIAIS</t>
+  </si>
+  <si>
+    <t>RECURSOS DO ESTADO APLICADOS NOS INVESTIMENTOS RELATIVOS À LC 212/2025 – PROPAG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,16 +396,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,84 +413,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,8 +499,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -526,6 +526,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -608,6 +609,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -781,13 +787,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CCCF36-5B33-4B61-A5C7-201737F69C59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789AB48F-0E31-431A-A549-8668341BB021}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f4338ef-addb-4c87-aefe-1895241b335f"/>
+    <ds:schemaRef ds:uri="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A2C736-546E-484E-93B3-B1A0CB59FCDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38DFFBB6-78D5-4692-BD04-46A377810F60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
+    <ds:schemaRef ds:uri="6f4338ef-addb-4c87-aefe-1895241b335f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>